--- a/qaMarsSpecflow/Data/Data.xlsx
+++ b/qaMarsSpecflow/Data/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764B842A-D1DE-421B-AE3B-1E97B1E786CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D22E130-2F8D-4C04-9384-B963E5F282FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Language</t>
   </si>
@@ -26,9 +26,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Basic</t>
-  </si>
-  <si>
     <t>Fluent</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>automation</t>
   </si>
   <si>
-    <t>Beginner</t>
-  </si>
-  <si>
     <t>Datacamp</t>
   </si>
   <si>
@@ -84,6 +78,9 @@
   </si>
   <si>
     <t>Password01</t>
+  </si>
+  <si>
+    <t>Expert</t>
   </si>
 </sst>
 </file>
@@ -484,21 +481,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2">
         <v>2012</v>
@@ -506,10 +503,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -536,26 +533,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -567,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F59243-9D0E-4911-AFBD-176FDD3A7120}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,20 +575,20 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -606,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F969344B-74FA-4EE5-AC7C-FDB28DBB99FB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -618,18 +615,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/qaMarsSpecflow/Data/Data.xlsx
+++ b/qaMarsSpecflow/Data/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D22E130-2F8D-4C04-9384-B963E5F282FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A591D221-9175-4D90-BB23-8D50C73F9989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Certifications" sheetId="3" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Datacamp</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Expert</t>
+  </si>
+  <si>
+    <t>analytics</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F028F2-1B31-4ACE-9009-269075941B69}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -503,7 +503,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -544,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F59243-9D0E-4911-AFBD-176FDD3A7120}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -615,18 +615,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
